--- a/reports/resnet18_23_no_MMTM/prediction/9/probability_test_9.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/9/probability_test_9.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.765269935131073</v>
+        <v>0.6590746641159058</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2347300946712494</v>
+        <v>0.3409252762794495</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2478365749120712</v>
+        <v>0.314952552318573</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7521634101867676</v>
+        <v>0.685047447681427</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8110843896865845</v>
+        <v>0.6725805401802063</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1889156401157379</v>
+        <v>0.3274194598197937</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6929135322570801</v>
+        <v>0.3970746994018555</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3070864677429199</v>
+        <v>0.6029253005981445</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9114257097244263</v>
+        <v>0.6686791777610779</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08857432752847672</v>
+        <v>0.3313208222389221</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2274006307125092</v>
+        <v>0.2050499320030212</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7725993394851685</v>
+        <v>0.794950008392334</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.28392493724823</v>
+        <v>0.2384146749973297</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7160750031471252</v>
+        <v>0.7615853548049927</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2916072010993958</v>
+        <v>0.4476944804191589</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7083927989006042</v>
+        <v>0.5523055195808411</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1834603250026703</v>
+        <v>0.1789029836654663</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8165396451950073</v>
+        <v>0.8210970163345337</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.195320188999176</v>
+        <v>0.1731720715761185</v>
       </c>
       <c r="C11" t="n">
-        <v>0.804679811000824</v>
+        <v>0.8268279433250427</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.506601870059967</v>
+        <v>0.6556249856948853</v>
       </c>
       <c r="C12" t="n">
-        <v>0.493398129940033</v>
+        <v>0.3443750143051147</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.180976077914238</v>
+        <v>0.1680171489715576</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8190239071846008</v>
+        <v>0.8319828510284424</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.275587260723114</v>
+        <v>0.2086866050958633</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7244127988815308</v>
+        <v>0.7913134098052979</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1201650053262711</v>
+        <v>0.1829558312892914</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8798350095748901</v>
+        <v>0.8170441389083862</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1583776324987411</v>
+        <v>0.1597403287887573</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8416223526000977</v>
+        <v>0.8402596712112427</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1117990911006927</v>
+        <v>0.1388571560382843</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8882009387016296</v>
+        <v>0.8611428737640381</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2778891026973724</v>
+        <v>0.2361006438732147</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7221108675003052</v>
+        <v>0.7638993859291077</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.08844334632158279</v>
+        <v>0.1353030800819397</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9115566611289978</v>
+        <v>0.8646969199180603</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1400344967842102</v>
+        <v>0.1523885428905487</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8599655032157898</v>
+        <v>0.8476114869117737</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1437179893255234</v>
+        <v>0.1930280327796936</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8562819957733154</v>
+        <v>0.8069719672203064</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3137406706809998</v>
+        <v>0.2122038006782532</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6862592697143555</v>
+        <v>0.7877962589263916</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3930614590644836</v>
+        <v>0.3978026509284973</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6069385409355164</v>
+        <v>0.6021972894668579</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
